--- a/src/test/resources/testData/userInformation.xlsx
+++ b/src/test/resources/testData/userInformation.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaiqb\Ahad New One\tek-frameworks-testng-main\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaiqb\Desktop\For BDD FW\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3A5409-0F8E-487A-A577-8041F91C100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6788266-C4F8-44C0-B5AA-3D5AE1797544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17955" yWindow="0" windowWidth="18090" windowHeight="14085" activeTab="1" xr2:uid="{442D4412-95C7-4319-AFBD-538F321F086F}"/>
+    <workbookView xWindow="17880" yWindow="-120" windowWidth="18240" windowHeight="28320" activeTab="2" xr2:uid="{442D4412-95C7-4319-AFBD-538F321F086F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -151,6 +152,24 @@
   </si>
   <si>
     <t>Makho</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>makho@tek.us</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Makho@tek7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>145</t>
   </si>
 </sst>
 </file>
@@ -195,10 +214,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -773,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED4252-ABEF-4AF7-AD31-E1CF8458D96F}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,4 +952,179 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E1A508-7153-4CF8-8DA7-C4689F6ECAEF}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>2024</v>
+      </c>
+      <c r="G3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>2024</v>
+      </c>
+      <c r="G4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>2024</v>
+      </c>
+      <c r="G5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>2024</v>
+      </c>
+      <c r="G6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>2024</v>
+      </c>
+      <c r="G7">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>2024</v>
+      </c>
+      <c r="G8">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4758135D-7B87-4F24-A0A3-D6E15EC2FD01}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>